--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.0.5_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.0.5_捷豹组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.0.5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>partner、partnerpc、renter、renterembed、renterembed-fe、payapi</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>施超、谷丽娜</t>
     <rPh sb="0" eb="1">
       <t>s'c</t>
@@ -295,6 +291,39 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客房源地址展示调整</t>
+    <rPh sb="0" eb="1">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao'z</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc、renter、renterembed、renterembed-fe、payapi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterembed</t>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -487,7 +516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="98">
+  <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +805,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -896,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="98">
+  <cellStyles count="108">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -949,6 +1008,11 @@
     <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -995,6 +1059,11 @@
     <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1432,7 +1501,7 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1750,7 +1819,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>30</v>
@@ -1772,7 +1841,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="19"/>
@@ -1788,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>27</v>
@@ -1828,18 +1897,40 @@
       <c r="T8" s="38"/>
     </row>
     <row r="9" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="19"/>
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="19">
+        <v>42677</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="19">
+        <v>42677</v>
+      </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="M9" s="28"/>
       <c r="N9" s="19"/>
       <c r="O9" s="28"/>
